--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 28 - Holding vessel 1/99RP275_S28_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 28 - Holding vessel 1/99RP275_S28_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 28 - Holding vessel 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD8A80C-F121-664C-8D0B-D644ACF84C46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5AAF58-27B9-6046-B7C5-688B71496248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="51200" windowHeight="21140" activeTab="5" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="-9520" yWindow="-21600" windowWidth="25560" windowHeight="21600" firstSheet="1" activeTab="4" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="97">
   <si>
     <r>
       <t xml:space="preserve">UPDATE </t>
@@ -458,6 +458,27 @@
   <si>
     <t>Delay high level</t>
   </si>
+  <si>
+    <t>010: MES:Man data - Batch Nr HCl</t>
+  </si>
+  <si>
+    <t>012: MES:Man data - Batch Nr CaCl2</t>
+  </si>
+  <si>
+    <t>013: MES:Man data - Batch Nr Hop Extract</t>
+  </si>
+  <si>
+    <t>014: MES:Man data - Batch Nr Hop Pellets 1</t>
+  </si>
+  <si>
+    <t>015: MES:Man data - Batch Nr Hop Pellets 2</t>
+  </si>
+  <si>
+    <t>016: MES:Man data - Batch Nr Hop Pellets 3</t>
+  </si>
+  <si>
+    <t>017: MES:Man data - Batch Nr Hop Pellets 4</t>
+  </si>
 </sst>
 </file>
 
@@ -528,7 +549,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -580,6 +601,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -848,6 +881,8 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5167,14 +5202,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Function: Massafra -   | Bergamo - 11: Steam counter total</v>
+        <v>-- Function: Massafra -  11: Steam counter total | Bergamo - 11: Steam counter total</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$3="NULL","",IF(ISBLANK('01 Function Comparison'!$K$3),"",'01 Function Comparison'!$K$3))</f>
-        <v/>
+        <v>11: Steam counter total</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>25</v>
@@ -5240,14 +5275,14 @@
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v xml:space="preserve">-- Function: Massafra -  SeqRunTime | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B7" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$4="NULL","",IF(ISBLANK('01 Function Comparison'!$K$4),"",'01 Function Comparison'!$K$4))</f>
-        <v>SeqRunTime</v>
+        <v/>
       </c>
       <c r="D7" s="25" t="s">
         <v>25</v>
@@ -5297,7 +5332,7 @@
     <row r="11" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="str">
         <f>CONCATENATE(D11,"N'",F11,"'")</f>
-        <v>WHERE _Name = N'99RP275.1073741917SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="30"/>
@@ -5307,20 +5342,20 @@
       <c r="E11" s="36"/>
       <c r="F11" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$4="NULL","",IF(ISBLANK('01 Function Comparison'!$L$4),"",'01 Function Comparison'!$L$4))</f>
-        <v>99RP275.1073741917SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay time Start Pump | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B12" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$5="NULL","",IF(ISBLANK('01 Function Comparison'!$K$5),"",'01 Function Comparison'!$K$5))</f>
-        <v>Delay time Start Pump</v>
+        <v/>
       </c>
       <c r="D12" s="25" t="s">
         <v>25</v>
@@ -5370,7 +5405,7 @@
     <row r="16" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="str">
         <f>CONCATENATE(D16,"N'",F16,"'")</f>
-        <v>WHERE _Name = N'99RP275.1073741918SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="30"/>
@@ -5380,20 +5415,20 @@
       <c r="E16" s="36"/>
       <c r="F16" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$5="NULL","",IF(ISBLANK('01 Function Comparison'!$L$5),"",'01 Function Comparison'!$L$5))</f>
-        <v>99RP275.1073741918SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay time PID | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B17" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$6="NULL","",IF(ISBLANK('01 Function Comparison'!$K$6),"",'01 Function Comparison'!$K$6))</f>
-        <v>Delay time PID</v>
+        <v/>
       </c>
       <c r="D17" s="25" t="s">
         <v>25</v>
@@ -5443,7 +5478,7 @@
     <row r="21" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="str">
         <f>CONCATENATE(D21,"N'",F21,"'")</f>
-        <v>WHERE _Name = N'99RP275.1073742146SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="30"/>
@@ -5453,20 +5488,20 @@
       <c r="E21" s="36"/>
       <c r="F21" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$6="NULL","",IF(ISBLANK('01 Function Comparison'!$L$6),"",'01 Function Comparison'!$L$6))</f>
-        <v>99RP275.1073742146SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay time Empty | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B22" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$7="NULL","",IF(ISBLANK('01 Function Comparison'!$K$7),"",'01 Function Comparison'!$K$7))</f>
-        <v>Delay time Empty</v>
+        <v/>
       </c>
       <c r="D22" s="25" t="s">
         <v>25</v>
@@ -5516,7 +5551,7 @@
     <row r="26" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="str">
         <f>CONCATENATE(D26,"N'",F26,"'")</f>
-        <v>WHERE _Name = N'99RP275.1073742147SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="30"/>
@@ -5526,20 +5561,20 @@
       <c r="E26" s="36"/>
       <c r="F26" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$7="NULL","",IF(ISBLANK('01 Function Comparison'!$L$7),"",'01 Function Comparison'!$L$7))</f>
-        <v>99RP275.1073742147SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="str">
         <f>CONCATENATE(B27,C27,D27,E27)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Delay high level | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B27" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$8="NULL","",IF(ISBLANK('01 Function Comparison'!$K$8),"",'01 Function Comparison'!$K$8))</f>
-        <v>Delay high level</v>
+        <v/>
       </c>
       <c r="D27" s="25" t="s">
         <v>25</v>
@@ -5589,7 +5624,7 @@
     <row r="31" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="str">
         <f>CONCATENATE(D31,"N'",F31,"'")</f>
-        <v>WHERE _Name = N'99RP275.1073742148SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="30"/>
@@ -5599,7 +5634,7 @@
       <c r="E31" s="36"/>
       <c r="F31" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$8="NULL","",IF(ISBLANK('01 Function Comparison'!$L$8),"",'01 Function Comparison'!$L$8))</f>
-        <v>99RP275.1073742148SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -10408,8 +10443,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I14" sqref="F3:I14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10528,14 +10563,11 @@
       <c r="I3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="2">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>35</v>
+      <c r="J3" s="57">
+        <v>10</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>90</v>
       </c>
       <c r="N3" s="11">
         <f>'00 Value Source'!H1</f>
@@ -10582,8 +10614,8 @@
       <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>3</v>
+      <c r="K4" s="56" t="s">
+        <v>91</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>3</v>
@@ -10633,8 +10665,8 @@
       <c r="J5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>3</v>
+      <c r="K5" s="56" t="s">
+        <v>92</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>3</v>
@@ -10684,8 +10716,8 @@
       <c r="J6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>3</v>
+      <c r="K6" s="56" t="s">
+        <v>93</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>3</v>
@@ -10735,8 +10767,8 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>3</v>
+      <c r="K7" s="56" t="s">
+        <v>94</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>3</v>
@@ -10786,8 +10818,8 @@
       <c r="J8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="56" t="s">
+        <v>95</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>3</v>
@@ -10837,8 +10869,8 @@
       <c r="J9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
+      <c r="K9" s="56" t="s">
+        <v>96</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>3</v>
@@ -10888,8 +10920,8 @@
       <c r="J10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
+      <c r="K10" s="56" t="s">
+        <v>57</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>3</v>
@@ -10939,8 +10971,8 @@
       <c r="J11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>3</v>
+      <c r="K11" s="56" t="s">
+        <v>60</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>3</v>
@@ -10990,8 +11022,8 @@
       <c r="J12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
+      <c r="K12" s="56" t="s">
+        <v>63</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>3</v>
@@ -11041,8 +11073,8 @@
       <c r="J13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>3</v>
+      <c r="K13" s="56" t="s">
+        <v>66</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>3</v>
@@ -11092,8 +11124,8 @@
       <c r="J14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="56" t="s">
+        <v>69</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>3</v>
@@ -11128,15 +11160,6 @@
         <f>'00 Value Source'!P13</f>
         <v>NULL</v>
       </c>
-      <c r="J15" s="2">
-        <v>40</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="N15" s="11">
         <f>'00 Value Source'!H13</f>
         <v>40</v>
@@ -11166,15 +11189,6 @@
       <c r="D16" s="13" t="str">
         <f>'00 Value Source'!P14</f>
         <v>NULL</v>
-      </c>
-      <c r="J16" s="2">
-        <v>41</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="N16" s="11">
         <f>'00 Value Source'!H14</f>
@@ -16509,7 +16523,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -22833,8 +22847,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22953,14 +22967,8 @@
       <c r="I3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>3</v>
+      <c r="K3" s="56" t="s">
+        <v>74</v>
       </c>
       <c r="N3" s="11" t="str">
         <f>'00 Function Source'!H1</f>
@@ -22992,15 +23000,6 @@
         <f>'00 Function Source'!P2</f>
         <v>NULL</v>
       </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="N4" s="11">
         <f>'00 Function Source'!H2</f>
         <v>1</v>
@@ -23031,15 +23030,6 @@
         <f>'00 Function Source'!P3</f>
         <v>NULL</v>
       </c>
-      <c r="J5" s="2">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="N5" s="11">
         <f>'00 Function Source'!H3</f>
         <v>2</v>
@@ -23070,15 +23060,6 @@
         <f>'00 Function Source'!P4</f>
         <v>NULL</v>
       </c>
-      <c r="J6" s="2">
-        <v>3</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="N6" s="11">
         <f>'00 Function Source'!H4</f>
         <v>3</v>
@@ -23109,15 +23090,6 @@
         <f>'00 Function Source'!P5</f>
         <v>NULL</v>
       </c>
-      <c r="J7" s="2">
-        <v>4</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="N7" s="11">
         <f>'00 Function Source'!H5</f>
         <v>4</v>
@@ -23147,15 +23119,6 @@
       <c r="D8" s="13" t="str">
         <f>'00 Function Source'!P6</f>
         <v>NULL</v>
-      </c>
-      <c r="J8" s="2">
-        <v>5</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="N8" s="11">
         <f>'00 Function Source'!H6</f>
@@ -34773,14 +34736,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Value: Massafra -  Batchnumber repair | Bergamo - 11:MES:Man data - Batch Nr HCl</v>
+        <v>-- Value: Massafra -  010: MES:Man data - Batch Nr HCl | Bergamo - 11:MES:Man data - Batch Nr HCl</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$3="NULL","",IF(ISBLANK('01 Value Comparison'!$K$3),"",'01 Value Comparison'!$K$3))</f>
-        <v>Batchnumber repair</v>
+        <v>010: MES:Man data - Batch Nr HCl</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>25</v>
@@ -34830,7 +34793,7 @@
     <row r="6" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="str">
         <f>CONCATENATE(D6,"N'",F6,"'")</f>
-        <v>WHERE _Name = N'99RP275.536874494SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="30"/>
@@ -34840,20 +34803,20 @@
       <c r="E6" s="36"/>
       <c r="F6" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$3="NULL","",IF(ISBLANK('01 Value Comparison'!$L$3),"",'01 Value Comparison'!$L$3))</f>
-        <v>99RP275.536874494SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Value: Massafra -   | Bergamo - 12:MES:Man data - Batch Nr CaCl2</v>
+        <v>-- Value: Massafra -  012: MES:Man data - Batch Nr CaCl2 | Bergamo - 12:MES:Man data - Batch Nr CaCl2</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$4="NULL","",IF(ISBLANK('01 Value Comparison'!$K$4),"",'01 Value Comparison'!$K$4))</f>
-        <v/>
+        <v>012: MES:Man data - Batch Nr CaCl2</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>25</v>
@@ -34919,14 +34882,14 @@
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Value: Massafra -   | Bergamo - 13:MES:Man data - Batch Nr Hop Extract</v>
+        <v>-- Value: Massafra -  013: MES:Man data - Batch Nr Hop Extract | Bergamo - 13:MES:Man data - Batch Nr Hop Extract</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$5="NULL","",IF(ISBLANK('01 Value Comparison'!$K$5),"",'01 Value Comparison'!$K$5))</f>
-        <v/>
+        <v>013: MES:Man data - Batch Nr Hop Extract</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>25</v>
@@ -34992,14 +34955,14 @@
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v>-- Value: Massafra -   | Bergamo - 14:MES:Man data - Batch Nr Hop Pellets 1</v>
+        <v>-- Value: Massafra -  014: MES:Man data - Batch Nr Hop Pellets 1 | Bergamo - 14:MES:Man data - Batch Nr Hop Pellets 1</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$6="NULL","",IF(ISBLANK('01 Value Comparison'!$K$6),"",'01 Value Comparison'!$K$6))</f>
-        <v/>
+        <v>014: MES:Man data - Batch Nr Hop Pellets 1</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>25</v>
@@ -35065,14 +35028,14 @@
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v>-- Value: Massafra -   | Bergamo - 15:MES:Man data - Batch Nr Hop Pellets 2</v>
+        <v>-- Value: Massafra -  015: MES:Man data - Batch Nr Hop Pellets 2 | Bergamo - 15:MES:Man data - Batch Nr Hop Pellets 2</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$7="NULL","",IF(ISBLANK('01 Value Comparison'!$K$7),"",'01 Value Comparison'!$K$7))</f>
-        <v/>
+        <v>015: MES:Man data - Batch Nr Hop Pellets 2</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>25</v>
@@ -35138,14 +35101,14 @@
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="str">
         <f>CONCATENATE(B27,C27,D27,E27)</f>
-        <v>-- Value: Massafra -   | Bergamo - 16:MES:Man data - Batch Nr Hop Pellets 3</v>
+        <v>-- Value: Massafra -  016: MES:Man data - Batch Nr Hop Pellets 3 | Bergamo - 16:MES:Man data - Batch Nr Hop Pellets 3</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$8="NULL","",IF(ISBLANK('01 Value Comparison'!$K$8),"",'01 Value Comparison'!$K$8))</f>
-        <v/>
+        <v>016: MES:Man data - Batch Nr Hop Pellets 3</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>25</v>
@@ -35211,14 +35174,14 @@
     <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="str">
         <f>CONCATENATE(B32,C32,D32,E32)</f>
-        <v>-- Value: Massafra -   | Bergamo - 17:MES:Man data - Batch Nr Hop Pellets 4</v>
+        <v>-- Value: Massafra -  017: MES:Man data - Batch Nr Hop Pellets 4 | Bergamo - 17:MES:Man data - Batch Nr Hop Pellets 4</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$9="NULL","",IF(ISBLANK('01 Value Comparison'!$K$9),"",'01 Value Comparison'!$K$9))</f>
-        <v/>
+        <v>017: MES:Man data - Batch Nr Hop Pellets 4</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>25</v>
@@ -35284,14 +35247,14 @@
     <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="str">
         <f>CONCATENATE(B37,C37,D37,E37)</f>
-        <v>-- Value: Massafra -   | Bergamo - 018: MES: Time Transfer MF/BT - WK</v>
+        <v>-- Value: Massafra -  018: MES: Time Transfer MF/BT - WK | Bergamo - 018: MES: Time Transfer MF/BT - WK</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$10="NULL","",IF(ISBLANK('01 Value Comparison'!$K$10),"",'01 Value Comparison'!$K$10))</f>
-        <v/>
+        <v>018: MES: Time Transfer MF/BT - WK</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>25</v>
@@ -35357,14 +35320,14 @@
     <row r="42" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="str">
         <f>CONCATENATE(B42,C42,D42,E42)</f>
-        <v>-- Value: Massafra -   | Bergamo - 020: MES: Man data - Alfa acids Hop Pellet 1</v>
+        <v>-- Value: Massafra -  020: MES: Man data - Alfa acids Hop Pellet 1 | Bergamo - 020: MES: Man data - Alfa acids Hop Pellet 1</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$11="NULL","",IF(ISBLANK('01 Value Comparison'!$K$11),"",'01 Value Comparison'!$K$11))</f>
-        <v/>
+        <v>020: MES: Man data - Alfa acids Hop Pellet 1</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>25</v>
@@ -35430,14 +35393,14 @@
     <row r="47" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="str">
         <f>CONCATENATE(B47,C47,D47,E47)</f>
-        <v>-- Value: Massafra -   | Bergamo - 021: MES: Man data - Alfa acids Hop Pellet 2</v>
+        <v>-- Value: Massafra -  021: MES: Man data - Alfa acids Hop Pellet 2 | Bergamo - 021: MES: Man data - Alfa acids Hop Pellet 2</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$12="NULL","",IF(ISBLANK('01 Value Comparison'!$K$12),"",'01 Value Comparison'!$K$12))</f>
-        <v/>
+        <v>021: MES: Man data - Alfa acids Hop Pellet 2</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>25</v>
@@ -35503,14 +35466,14 @@
     <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="str">
         <f>CONCATENATE(B52,C52,D52,E52)</f>
-        <v>-- Value: Massafra -   | Bergamo - 022: MES: Man data - Alfa acids Hop Pellet 3</v>
+        <v>-- Value: Massafra -  022: MES: Man data - Alfa acids Hop Pellet 3 | Bergamo - 022: MES: Man data - Alfa acids Hop Pellet 3</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C52" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$13="NULL","",IF(ISBLANK('01 Value Comparison'!$K$13),"",'01 Value Comparison'!$K$13))</f>
-        <v/>
+        <v>022: MES: Man data - Alfa acids Hop Pellet 3</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>25</v>
@@ -35576,14 +35539,14 @@
     <row r="57" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="str">
         <f>CONCATENATE(B57,C57,D57,E57)</f>
-        <v>-- Value: Massafra -   | Bergamo - 023: MES: Man data - Alfa acids Hop Extract</v>
+        <v>-- Value: Massafra -  023: MES: Man data - Alfa acids Hop Extract | Bergamo - 023: MES: Man data - Alfa acids Hop Extract</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C57" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$14="NULL","",IF(ISBLANK('01 Value Comparison'!$K$14),"",'01 Value Comparison'!$K$14))</f>
-        <v/>
+        <v>023: MES: Man data - Alfa acids Hop Extract</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>25</v>
@@ -35649,14 +35612,14 @@
     <row r="62" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="38" t="str">
         <f>CONCATENATE(B62,C62,D62,E62)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Less boil - Initial density | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B62" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C62" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$15="NULL","",IF(ISBLANK('01 Value Comparison'!$K$15),"",'01 Value Comparison'!$K$15))</f>
-        <v>Less boil - Initial density</v>
+        <v/>
       </c>
       <c r="D62" s="25" t="s">
         <v>25</v>
@@ -35706,7 +35669,7 @@
     <row r="66" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="str">
         <f>CONCATENATE(D66,"N'",F66,"'")</f>
-        <v>WHERE _Name = N'99RP275.536874518SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="30"/>
@@ -35716,20 +35679,20 @@
       <c r="E66" s="36"/>
       <c r="F66" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$15="NULL","",IF(ISBLANK('01 Value Comparison'!$L$15),"",'01 Value Comparison'!$L$15))</f>
-        <v>99RP275.536874518SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="67" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="38" t="str">
         <f>CONCATENATE(B67,C67,D67,E67)</f>
-        <v xml:space="preserve">-- Value: Massafra -  MPDS5 Product | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B67" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C67" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$16="NULL","",IF(ISBLANK('01 Value Comparison'!$K$16),"",'01 Value Comparison'!$K$16))</f>
-        <v>MPDS5 Product</v>
+        <v/>
       </c>
       <c r="D67" s="25" t="s">
         <v>25</v>
@@ -35779,7 +35742,7 @@
     <row r="71" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="41" t="str">
         <f>CONCATENATE(D71,"N'",F71,"'")</f>
-        <v>WHERE _Name = N'99RP275.536874519SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="30"/>
@@ -35789,7 +35752,7 @@
       <c r="E71" s="36"/>
       <c r="F71" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$16="NULL","",IF(ISBLANK('01 Value Comparison'!$L$16),"",'01 Value Comparison'!$L$16))</f>
-        <v>99RP275.536874519SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="72" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
